--- a/translate.xlsx
+++ b/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="1568">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -1329,6 +1329,15 @@
   </si>
   <si>
     <t xml:space="preserve">open_use_flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reEnter_New_password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session_Review </t>
   </si>
   <si>
     <t xml:space="preserve">Afghan</t>
@@ -4946,10 +4955,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8061,17 +8070,42 @@
         <v>434</v>
       </c>
     </row>
+    <row r="151" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B130:C130 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B150:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141">
+  <conditionalFormatting sqref="B130:C130 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B156:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141 B150">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:C130 B1:B32 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B150:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141">
+  <conditionalFormatting sqref="B130:C130 B1:B32 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B156:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141 B150">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:C130 B1:B36 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B150:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141">
+  <conditionalFormatting sqref="B130:C130 B1:B36 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B156:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141 B150">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B130:C130 B1:B54 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B150:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141">
+  <conditionalFormatting sqref="B130:C130 B1:B54 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B156:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B128 B137 B139 B141 B150">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8099,3082 +8133,3082 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -11206,10 +11240,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -11222,10 +11256,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -11238,10 +11272,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -11254,10 +11288,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -11270,10 +11304,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -11286,10 +11320,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -11302,10 +11336,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -11318,10 +11352,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -11334,10 +11368,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -11350,10 +11384,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -11366,10 +11400,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -11382,10 +11416,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -11398,10 +11432,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -11414,10 +11448,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -11430,10 +11464,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -11446,10 +11480,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -11462,10 +11496,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -11478,10 +11512,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -11494,10 +11528,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -11510,10 +11544,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -11526,10 +11560,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -11542,10 +11576,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -11558,10 +11592,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -11574,10 +11608,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -11590,10 +11624,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -11606,10 +11640,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -11622,10 +11656,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -11638,10 +11672,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -11654,10 +11688,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -11670,10 +11704,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -11686,10 +11720,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -11702,10 +11736,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -11718,10 +11752,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -11734,10 +11768,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -11750,10 +11784,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -11766,10 +11800,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -11782,10 +11816,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -11798,10 +11832,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -11814,10 +11848,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -11830,10 +11864,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -11846,10 +11880,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -11862,10 +11896,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -11878,10 +11912,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -11894,10 +11928,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -11910,10 +11944,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -11926,10 +11960,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -11942,10 +11976,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -11958,10 +11992,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -11974,10 +12008,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -11990,10 +12024,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -12006,10 +12040,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -12022,10 +12056,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -12038,10 +12072,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -12054,10 +12088,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -12070,10 +12104,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -12086,10 +12120,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -12102,10 +12136,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -12118,10 +12152,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -12134,10 +12168,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -12150,10 +12184,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -12166,10 +12200,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -12182,10 +12216,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -12198,10 +12232,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -12214,10 +12248,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -12230,10 +12264,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -12246,10 +12280,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -12262,10 +12296,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -12278,10 +12312,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="C68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -12294,10 +12328,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -12310,10 +12344,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -12326,10 +12360,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -12342,10 +12376,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -12358,10 +12392,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -12374,10 +12408,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -12390,10 +12424,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -12406,10 +12440,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -12422,10 +12456,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -12438,10 +12472,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -12454,10 +12488,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -12470,10 +12504,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -12486,10 +12520,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -12502,10 +12536,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -12518,10 +12552,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -12534,10 +12568,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -12550,10 +12584,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -12566,10 +12600,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -12582,10 +12616,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -12598,10 +12632,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -12614,10 +12648,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -12630,10 +12664,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -12646,10 +12680,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -12662,10 +12696,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -12678,10 +12712,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -12694,10 +12728,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -12710,10 +12744,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -12726,10 +12760,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -12742,10 +12776,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -12758,10 +12792,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -12774,10 +12808,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -12790,10 +12824,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -12806,10 +12840,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -12822,10 +12856,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -12838,10 +12872,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -12854,10 +12888,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -12870,10 +12904,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -12886,10 +12920,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -12902,10 +12936,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -12918,10 +12952,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -12934,10 +12968,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -12950,10 +12984,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -12966,10 +13000,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -12982,10 +13016,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -12998,10 +13032,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -13014,10 +13048,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -13030,10 +13064,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -13046,10 +13080,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -13062,10 +13096,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -13078,10 +13112,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -13094,10 +13128,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -13110,10 +13144,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -13126,10 +13160,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -13142,10 +13176,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -13158,10 +13192,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -13174,10 +13208,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -13190,10 +13224,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -13206,10 +13240,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -13222,10 +13256,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -13238,10 +13272,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -13254,10 +13288,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -13270,10 +13304,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -13286,10 +13320,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -13302,10 +13336,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -13318,10 +13352,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -13334,10 +13368,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -13350,10 +13384,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -13366,10 +13400,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -13382,10 +13416,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -13398,10 +13432,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -13414,10 +13448,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -13430,10 +13464,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -13446,10 +13480,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -13462,10 +13496,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="C142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -13478,10 +13512,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -13494,10 +13528,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -13510,10 +13544,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="C145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -13526,10 +13560,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="C146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -13542,10 +13576,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -13558,10 +13592,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="C148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -13574,10 +13608,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="C149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -13590,10 +13624,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="C150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -13606,10 +13640,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -13622,10 +13656,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="C152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -13662,7 +13696,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -13673,12 +13707,12 @@
         <v>Algiers</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -13689,12 +13723,12 @@
         <v>Annaba</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -13705,12 +13739,12 @@
         <v>Azazga</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -13721,12 +13755,12 @@
         <v>Batna City</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -13737,12 +13771,12 @@
         <v>Blida</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="B6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -13753,12 +13787,12 @@
         <v>Bordj</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="B7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -13769,12 +13803,12 @@
         <v>Bordj Bou Arreridj</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="B8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -13785,12 +13819,12 @@
         <v>Bougara</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="B9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -13801,12 +13835,12 @@
         <v>Cheraga</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="B10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -13817,12 +13851,12 @@
         <v>Chlef</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -13833,12 +13867,12 @@
         <v>Constantine</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -13849,12 +13883,12 @@
         <v>Djelfa</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -13865,12 +13899,12 @@
         <v>Draria</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -13881,12 +13915,12 @@
         <v>El Tarf</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="B15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -13897,12 +13931,12 @@
         <v>Hussein Dey</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -13913,12 +13947,12 @@
         <v>Illizi</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -13929,12 +13963,12 @@
         <v>Jijel</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="B18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -13945,12 +13979,12 @@
         <v>Kouba</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -13961,12 +13995,12 @@
         <v>Laghouat</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="B20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -13977,12 +14011,12 @@
         <v>Oran</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -13993,12 +14027,12 @@
         <v>Ouargla</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="B22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -14009,12 +14043,12 @@
         <v>Oued Smar</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="B23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -14025,12 +14059,12 @@
         <v>Relizane</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -14041,12 +14075,12 @@
         <v>Rouiba</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="B25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -14057,12 +14091,12 @@
         <v>Saida</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -14073,12 +14107,12 @@
         <v>Souk Ahras</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -14089,12 +14123,12 @@
         <v>Tamanghasset</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -14105,12 +14139,12 @@
         <v>Tiaret</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -14121,12 +14155,12 @@
         <v>Tissemsilt</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="B30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -14137,12 +14171,12 @@
         <v>Tizi</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="B31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -14153,12 +14187,12 @@
         <v>Tizi Ouzou</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="B32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -14169,12 +14203,12 @@
         <v>Tlemcen</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -14185,12 +14219,12 @@
         <v>Abraq Khaytan</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="B34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -14201,12 +14235,12 @@
         <v>Ad Dasmah</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="B35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -14217,12 +14251,12 @@
         <v>Ad Dawhah</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="B36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -14233,12 +14267,12 @@
         <v>Al Ahmadi</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="B37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -14249,12 +14283,12 @@
         <v>Al Farwaniyah</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -14265,12 +14299,12 @@
         <v>Al Shamiya</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -14281,12 +14315,12 @@
         <v>Ar Rawdah</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -14297,12 +14331,12 @@
         <v>As Salimiyah</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -14313,12 +14347,12 @@
         <v>Ash Shu`aybah</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -14329,12 +14363,12 @@
         <v>Ash Shuwaykh</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -14345,12 +14379,12 @@
         <v>Bayan</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -14361,12 +14395,12 @@
         <v>Hawalli</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -14377,12 +14411,12 @@
         <v>Janub as Surrah</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -14393,12 +14427,12 @@
         <v>Kayfan</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -14409,12 +14443,12 @@
         <v>Kuwait City</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -14425,12 +14459,12 @@
         <v>Salwa</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -14441,12 +14475,12 @@
         <v>Abha</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -14457,12 +14491,12 @@
         <v>Abqaiq</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -14473,12 +14507,12 @@
         <v>Al_Bahah</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -14489,12 +14523,12 @@
         <v>Al_Faruq</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -14505,12 +14539,12 @@
         <v>Al_Hufuf</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -14521,12 +14555,12 @@
         <v>Al_Qatif</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -14537,12 +14571,12 @@
         <v>Al_Yamamah</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -14553,12 +14587,12 @@
         <v>At_Tuwal</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -14569,12 +14603,12 @@
         <v>Buraidah</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -14585,12 +14619,12 @@
         <v>Dammam</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -14601,12 +14635,12 @@
         <v>Dhahran</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -14617,12 +14651,12 @@
         <v>Hayil</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -14633,12 +14667,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -14649,12 +14683,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -14665,12 +14699,12 @@
         <v>Jeddah</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -14681,12 +14715,12 @@
         <v>Jizan</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -14697,12 +14731,12 @@
         <v>Jubail</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -14713,12 +14747,12 @@
         <v>Khamis_Mushait</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -14729,12 +14763,12 @@
         <v>Khobar</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -14745,12 +14779,12 @@
         <v>Khulays</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -14761,12 +14795,12 @@
         <v>Linah</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -14777,12 +14811,12 @@
         <v>Madinat_Yanbu__as_Sina_iyah</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -14793,12 +14827,12 @@
         <v>Mecca</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -14809,12 +14843,12 @@
         <v>Medina</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -14825,12 +14859,12 @@
         <v>Mina</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -14841,12 +14875,12 @@
         <v>Najran</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -14857,12 +14891,12 @@
         <v>Rabigh</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -14873,12 +14907,12 @@
         <v>Rahimah</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -14889,12 +14923,12 @@
         <v>Rahman</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -14905,12 +14939,12 @@
         <v>Ramdah</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -14921,12 +14955,12 @@
         <v>Ras_Tanura</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -14937,12 +14971,12 @@
         <v>Riyadh</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -14953,12 +14987,12 @@
         <v>Sabya</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -14969,12 +15003,12 @@
         <v>Safwa</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -14985,12 +15019,12 @@
         <v>Sakaka</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -15001,12 +15035,12 @@
         <v>Sambah</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -15017,12 +15051,12 @@
         <v>Sayhat</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -15033,12 +15067,12 @@
         <v>Tabuk</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -15049,12 +15083,12 @@
         <v>Yanbu__al_Bahr</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -15065,12 +15099,12 @@
         <v>Abu_Hammad</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -15081,12 +15115,12 @@
         <v>Al_Mahallah_al_Kubra</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -15097,12 +15131,12 @@
         <v>Al_Mansurah</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -15113,12 +15147,12 @@
         <v>Al_Marj</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -15129,12 +15163,12 @@
         <v>Alexandria</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -15145,12 +15179,12 @@
         <v>Almazah</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -15161,12 +15195,12 @@
         <v>Ar_Rawdah</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -15177,12 +15211,12 @@
         <v>Assiut</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -15193,12 +15227,12 @@
         <v>Az_Zamalik</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -15209,12 +15243,12 @@
         <v>Badr</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -15225,12 +15259,12 @@
         <v>Banha</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -15241,12 +15275,12 @@
         <v>Bani_Suwayf</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -15257,12 +15291,12 @@
         <v>Cairo</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -15273,12 +15307,12 @@
         <v>Damietta</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -15289,12 +15323,12 @@
         <v>Faraskur</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -15305,12 +15339,12 @@
         <v>Flaminj</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -15321,12 +15355,12 @@
         <v>Giza</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -15337,12 +15371,12 @@
         <v>Heliopolis</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -15353,12 +15387,12 @@
         <v>Helwan</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -15369,12 +15403,12 @@
         <v>Hurghada</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -15385,12 +15419,12 @@
         <v>Ismailia</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -15401,12 +15435,12 @@
         <v>Kafr_ash_Shaykh</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -15417,12 +15451,12 @@
         <v>Luxor</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -15433,12 +15467,12 @@
         <v>Madinat_an_Nasr</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -15449,12 +15483,12 @@
         <v>Madinat_as_Sadis_min_Uktubar</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -15465,12 +15499,12 @@
         <v>Minya</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -15481,12 +15515,12 @@
         <v>Nasr</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -15497,12 +15531,12 @@
         <v>New_Cairo</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -15513,12 +15547,12 @@
         <v>Port_Said</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -15529,12 +15563,12 @@
         <v>Rafah</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -15545,12 +15579,12 @@
         <v>Ramsis</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -15561,12 +15595,12 @@
         <v>Sadat</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -15577,12 +15611,12 @@
         <v>Shirbin</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -15593,12 +15627,12 @@
         <v>Shubra</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -15609,12 +15643,12 @@
         <v>Sohag</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -15625,12 +15659,12 @@
         <v>Suez</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -15641,12 +15675,12 @@
         <v>Tanta</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -15657,12 +15691,12 @@
         <v>Toukh</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -15673,12 +15707,12 @@
         <v>Zagazig</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -15689,12 +15723,12 @@
         <v>Abu_Dhabi</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -15705,12 +15739,12 @@
         <v>Al_Ain</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -15721,12 +15755,12 @@
         <v>Al_Khan</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -15737,12 +15771,12 @@
         <v>Ar_Ruways</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -15753,12 +15787,12 @@
         <v>As_Satwah</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -15769,12 +15803,12 @@
         <v>Dayrah</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -15785,12 +15819,12 @@
         <v>Dubai</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -15801,12 +15835,12 @@
         <v>Fujairah</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -15817,12 +15851,12 @@
         <v>Ras_al_Khaimah</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -15833,12 +15867,12 @@
         <v>Sharjah</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -15849,12 +15883,12 @@
         <v>Al Budayyi`</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -15865,12 +15899,12 @@
         <v>Al Hadd</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="B139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -15881,12 +15915,12 @@
         <v>Al Hamalah</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -15897,12 +15931,12 @@
         <v>Al Janabiyah</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -15913,12 +15947,12 @@
         <v>Al Markh</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -15929,12 +15963,12 @@
         <v>Al Muharraq</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -15945,12 +15979,12 @@
         <v>Bani Jamrah</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -15961,12 +15995,12 @@
         <v>Barbar</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -15977,12 +16011,12 @@
         <v>Jurdab</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -15993,12 +16027,12 @@
         <v>Madinat `Isa</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -16009,12 +16043,12 @@
         <v>Madinat Hamad</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="B148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -16025,12 +16059,12 @@
         <v>Manama</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -16041,12 +16075,12 @@
         <v>Oil City</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -16057,12 +16091,12 @@
         <v>Sanabis</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -16073,12 +16107,12 @@
         <v>Sanad</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -16089,12 +16123,12 @@
         <v>Sitrah</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B153" s="2" t="str">
         <f aca="false">TRIM(A153)</f>
@@ -16105,7 +16139,7 @@
         <v>Tubli</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
@@ -16134,28 +16168,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,10 +16197,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>6068695</v>
@@ -16181,20 +16215,20 @@
         <v>7947121</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J2" s="1" t="str">
         <f aca="false">B2</f>
         <v>Cairo</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16202,10 +16236,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2926859</v>
@@ -16220,20 +16254,20 @@
         <v>4247414</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J3" s="1" t="str">
         <f aca="false">B3</f>
         <v>Alexandria</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16241,10 +16275,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1883189</v>
@@ -16259,20 +16293,20 @@
         <v>3258540</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J4" s="1" t="str">
         <f aca="false">B4</f>
         <v>Gizeh</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16280,10 +16314,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>714594</v>
@@ -16298,20 +16332,20 @@
         <v>1045370</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J5" s="1" t="str">
         <f aca="false">B5</f>
         <v>Shubra El-Kheima</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16319,10 +16353,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>401172</v>
@@ -16337,20 +16371,20 @@
         <v>588935</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J6" s="1" t="str">
         <f aca="false">B6</f>
         <v>Port Said</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16358,10 +16392,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>327717</v>
@@ -16376,20 +16410,20 @@
         <v>529055</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J7" s="1" t="str">
         <f aca="false">B7</f>
         <v>Suez</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16397,10 +16431,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>274074</v>
@@ -16415,20 +16449,20 @@
         <v>469440</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J8" s="1" t="str">
         <f aca="false">B8</f>
         <v>Luxor</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16436,10 +16470,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>317508</v>
@@ -16454,20 +16488,20 @@
         <v>465375</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J9" s="1" t="str">
         <f aca="false">B9</f>
         <v>al-Mansura</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16475,10 +16509,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>306509</v>
@@ -16493,20 +16527,20 @@
         <v>450833</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J10" s="1" t="str">
         <f aca="false">B10</f>
         <v>El-Mahalla El-Kubra</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16514,10 +16548,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>336517</v>
@@ -16532,20 +16566,20 @@
         <v>429632</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J11" s="1" t="str">
         <f aca="false">B11</f>
         <v>Tanta</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16553,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>272986</v>
@@ -16571,20 +16605,20 @@
         <v>394961</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J12" s="1" t="str">
         <f aca="false">B12</f>
         <v>Asyut</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16592,10 +16626,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>158045</v>
@@ -16610,20 +16644,20 @@
         <v>338429</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J13" s="1" t="str">
         <f aca="false">B13</f>
         <v>Ismailia</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,10 +16665,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>213070</v>
@@ -16649,20 +16683,20 @@
         <v>327917</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J14" s="1" t="str">
         <f aca="false">B14</f>
         <v>Fayyum</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16670,10 +16704,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>244354</v>
@@ -16688,20 +16722,20 @@
         <v>308637</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J15" s="1" t="str">
         <f aca="false">B15</f>
         <v>Zagazig</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16709,10 +16743,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>190579</v>
@@ -16727,20 +16761,20 @@
         <v>273450</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J16" s="1" t="str">
         <f aca="false">B16</f>
         <v>Aswan</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16748,10 +16782,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>89498</v>
@@ -16766,20 +16800,20 @@
         <v>266627</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J17" s="1" t="str">
         <f aca="false">B17</f>
         <v>Damietta</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16787,10 +16821,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>188939</v>
@@ -16805,20 +16839,20 @@
         <v>247074</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J18" s="1" t="str">
         <f aca="false">B18</f>
         <v>Damanhur</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16826,10 +16860,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>179060</v>
@@ -16844,20 +16878,20 @@
         <v>246835</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J19" s="1" t="str">
         <f aca="false">B19</f>
         <v>al-Minya</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16865,10 +16899,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>152476</v>
@@ -16883,20 +16917,20 @@
         <v>218472</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J20" s="1" t="str">
         <f aca="false">B20</f>
         <v>Beni Suef</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16904,10 +16938,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>119917</v>
@@ -16922,20 +16956,20 @@
         <v>214851</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J21" s="1" t="str">
         <f aca="false">B21</f>
         <v>Qena</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16943,10 +16977,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>132649</v>
@@ -16961,20 +16995,20 @@
         <v>193931</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J22" s="1" t="str">
         <f aca="false">B22</f>
         <v>Sohag</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16982,10 +17016,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>132649</v>
@@ -17000,20 +17034,20 @@
         <v>189660</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J23" s="1" t="str">
         <f aca="false">B23</f>
         <v>Hurghada</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17021,13 +17055,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>35477</v>
@@ -17039,20 +17073,20 @@
         <v>183859</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J24" s="1" t="str">
         <f aca="false">B24</f>
         <v>6th of October City</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17060,10 +17094,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>132751</v>
@@ -17078,20 +17112,20 @@
         <v>180454</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J25" s="1" t="str">
         <f aca="false">B25</f>
         <v>Shibin El Kom</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,10 +17133,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>115701</v>
@@ -17117,20 +17151,20 @@
         <v>161263</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J26" s="1" t="str">
         <f aca="false">B26</f>
         <v>Banha</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17138,10 +17172,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>103301</v>
@@ -17156,20 +17190,20 @@
         <v>151781</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J27" s="1" t="str">
         <f aca="false">B27</f>
         <v>Kafr el-Sheikh</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,10 +17211,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>67337</v>
@@ -17195,20 +17229,20 @@
         <v>146758</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J28" s="1" t="str">
         <f aca="false">B28</f>
         <v>Arish</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17216,10 +17250,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>98632</v>
@@ -17234,20 +17268,20 @@
         <v>144330</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J29" s="1" t="str">
         <f aca="false">B29</f>
         <v>Mallawi</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17255,13 +17289,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>47839</v>
@@ -17273,20 +17307,20 @@
         <v>143753</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J30" s="1" t="str">
         <f aca="false">B30</f>
         <v>10th of Ramadan City</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17294,10 +17328,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>96511</v>
@@ -17312,20 +17346,20 @@
         <v>140892</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J31" s="1" t="str">
         <f aca="false">B31</f>
         <v>Bilbais</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17333,10 +17367,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>43157</v>
@@ -17351,20 +17385,20 @@
         <v>137704</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J32" s="1" t="str">
         <f aca="false">B32</f>
         <v>Marsa Matruh</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17372,10 +17406,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>46163</v>
@@ -17390,20 +17424,20 @@
         <v>122031</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J33" s="1" t="str">
         <f aca="false">B33</f>
         <v>Idfu</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17411,10 +17445,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>91927</v>
@@ -17429,20 +17463,20 @@
         <v>118618</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J34" s="1" t="str">
         <f aca="false">B34</f>
         <v>Mit Ghamr</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17450,10 +17484,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>73298</v>
@@ -17468,20 +17502,20 @@
         <v>113128</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J35" s="1" t="str">
         <f aca="false">B35</f>
         <v>Al-Hamidiyya</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17489,10 +17523,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>78316</v>
@@ -17507,20 +17541,20 @@
         <v>109787</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J36" s="1" t="str">
         <f aca="false">B36</f>
         <v>Desouk</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17528,10 +17562,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>84413</v>
@@ -17546,20 +17580,20 @@
         <v>108573</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J37" s="1" t="str">
         <f aca="false">B37</f>
         <v>Qalyub</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17567,10 +17601,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>68394</v>
@@ -17585,20 +17619,20 @@
         <v>106050</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J38" s="1" t="str">
         <f aca="false">B38</f>
         <v>Abu Kabir</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17606,10 +17640,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>196244</v>
@@ -17624,20 +17658,20 @@
         <v>105671</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J39" s="1" t="str">
         <f aca="false">B39</f>
         <v>Kafr el-Dawwar</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17645,10 +17679,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>71564</v>
@@ -17663,20 +17697,20 @@
         <v>104712</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J40" s="1" t="str">
         <f aca="false">B40</f>
         <v>Girga</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17684,10 +17718,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>70602</v>
@@ -17702,20 +17736,20 @@
         <v>104454</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J41" s="1" t="str">
         <f aca="false">B41</f>
         <v>Akhmim</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17723,10 +17757,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>74554</v>
@@ -17741,20 +17775,20 @@
         <v>103004</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J42" s="1" t="str">
         <f aca="false">B42</f>
         <v>Matareya</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">Are You Sure You Want to Delete This Availability Period?</t>
   </si>
   <si>
-    <t xml:space="preserve">هل أنت متأكد أنك تريد حذف هذه الفترة من التوفر؟</t>
+    <t xml:space="preserve">هل أنت متأكد أنك تريد حذف هذه الفترة من مواعيدك؟</t>
   </si>
   <si>
     <t xml:space="preserve">Delete</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">التوفر</t>
+    <t xml:space="preserve">المتاح</t>
   </si>
   <si>
     <t xml:space="preserve">add_new</t>
@@ -1233,7 +1233,7 @@
     <t xml:space="preserve">No Free Slots</t>
   </si>
   <si>
-    <t xml:space="preserve">لا توجد فتحات مجانية</t>
+    <t xml:space="preserve">لا توجد مواعيد متاحة</t>
   </si>
   <si>
     <t xml:space="preserve">MyStudents</t>
@@ -1440,7 +1440,7 @@
     <t xml:space="preserve">Availability Appointments</t>
   </si>
   <si>
-    <t xml:space="preserve">مواعيد التوافر</t>
+    <t xml:space="preserve">مواعيد المتاحة</t>
   </si>
   <si>
     <t xml:space="preserve">Reviews</t>
@@ -1599,7 +1599,7 @@
     <t xml:space="preserve">No Free Slots Available. The Teacher Will Not Be Available for the Next Three Months.</t>
   </si>
   <si>
-    <t xml:space="preserve">لا تتوفر فتحات مجانية. لن يكون المعلم متاحًا للشهور الثلاثة القادمة.</t>
+    <t xml:space="preserve">لا تتواجد مواعيد متاحة. لن يكون المعلم متاحًا للشهور الثلاثة القادمة.</t>
   </si>
   <si>
     <t xml:space="preserve">pls_sub_first</t>
@@ -5289,8 +5289,8 @@
   </sheetPr>
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B199" activeCellId="0" sqref="B199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D172" activeCellId="0" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="F140" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B140)&amp;"':"&amp;"'"&amp;TRIM(D140)&amp;"',"</f>
-        <v>'sure_del_avail':'هل أنت متأكد أنك تريد حذف هذه الفترة من التوفر؟',</v>
+        <v>'sure_del_avail':'هل أنت متأكد أنك تريد حذف هذه الفترة من مواعيدك؟',</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="F142" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B142)&amp;"':"&amp;"'"&amp;TRIM(D142)&amp;"',"</f>
-        <v>'Availability':'التوفر',</v>
+        <v>'Availability':'المتاح',</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="F144" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B144)&amp;"':"&amp;"'"&amp;TRIM(D144)&amp;"',"</f>
-        <v>'No_free_slots':'لا توجد فتحات مجانية',</v>
+        <v>'No_free_slots':'لا توجد مواعيد متاحة',</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="F169" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B169)&amp;"':"&amp;"'"&amp;TRIM(D169)&amp;"',"</f>
-        <v>'aval_appoint':'مواعيد التوافر',</v>
+        <v>'aval_appoint':'مواعيد المتاحة',</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="F187" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B187)&amp;"':"&amp;"'"&amp;TRIM(D187)&amp;"',"</f>
-        <v>'No_free_slots_teacher':'لا تتوفر فتحات مجانية. لن يكون المعلم متاحًا للشهور الثلاثة القادمة.',</v>
+        <v>'No_free_slots_teacher':'لا تتواجد مواعيد متاحة. لن يكون المعلم متاحًا للشهور الثلاثة القادمة.',</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1694">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -1698,6 +1698,24 @@
   </si>
   <si>
     <t xml:space="preserve">اسم المستخدم أو كلمة المرور التي أدخلتها غير صحيحة. الرجاء التحقق من بيانات الاعتماد الخاصة بك والمحاولة مرة أخرى </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_enter_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the entered phone number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل هذا الرقم  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> correct? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح  ؟  </t>
   </si>
   <si>
     <t xml:space="preserve">Afghan</t>
@@ -5274,10 +5292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F201" activeCellId="0" sqref="F201:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9381,10 +9399,10 @@
       <c r="B200" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="4" t="s">
         <v>557</v>
       </c>
       <c r="E200" s="2" t="str">
@@ -9394,6 +9412,44 @@
       <c r="F200" s="2" t="str">
         <f aca="false">"'"&amp;TRIM(B200)&amp;"':"&amp;"'"&amp;TRIM(D200)&amp;"',"</f>
         <v>'wrong_username_password':'اسم المستخدم أو كلمة المرور التي أدخلتها غير صحيحة. الرجاء التحقق من بيانات الاعتماد الخاصة بك والمحاولة مرة أخرى',</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E201" s="2" t="str">
+        <f aca="false">""""&amp;TRIM(B201)&amp;""":"&amp;""""&amp;TRIM(C201)&amp;""","</f>
+        <v>"is_enter_phone":"Is the entered phone number:",</v>
+      </c>
+      <c r="F201" s="2" t="str">
+        <f aca="false">"'"&amp;TRIM(B201)&amp;"':"&amp;"'"&amp;TRIM(D201)&amp;"',"</f>
+        <v>'is_enter_phone':'هل هذا الرقم',</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E202" s="2" t="str">
+        <f aca="false">""""&amp;TRIM(B202)&amp;""":"&amp;""""&amp;TRIM(C202)&amp;""","</f>
+        <v>"correct":" correct?",</v>
+      </c>
+      <c r="F202" s="2" t="str">
+        <f aca="false">"'"&amp;TRIM(B202)&amp;"':"&amp;"'"&amp;TRIM(D202)&amp;"',"</f>
+        <v>'correct':'صحيح ؟',</v>
       </c>
     </row>
   </sheetData>
@@ -9421,3089 +9477,3089 @@
   <dimension ref="B2:D283"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F201:F202 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="2" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="2" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="2" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="2" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="2" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="2" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="2" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="2" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="2" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="2" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="2" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="2" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -12528,17 +12584,17 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
+      <selection pane="topLeft" activeCell="D152" activeCellId="1" sqref="F201:F202 D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="C1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -12551,10 +12607,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -12567,10 +12623,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -12583,10 +12639,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -12599,10 +12655,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="C5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -12615,10 +12671,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="C6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -12631,10 +12687,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -12647,10 +12703,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="C8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -12663,10 +12719,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="C9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -12679,10 +12735,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -12695,10 +12751,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="C11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -12711,10 +12767,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -12727,10 +12783,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="C13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -12743,10 +12799,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="C14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -12759,10 +12815,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -12775,10 +12831,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -12791,10 +12847,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="C17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -12807,10 +12863,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -12823,10 +12879,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="C19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -12839,10 +12895,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="C20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -12855,10 +12911,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="C21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -12871,10 +12927,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="C22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -12887,10 +12943,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -12903,10 +12959,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -12919,10 +12975,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -12935,10 +12991,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -12951,10 +13007,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -12967,10 +13023,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -12983,10 +13039,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -12999,10 +13055,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -13015,10 +13071,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="C31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -13031,10 +13087,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="C32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -13047,10 +13103,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="C33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -13063,10 +13119,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -13079,10 +13135,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -13095,10 +13151,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="C36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -13111,10 +13167,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="C37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -13127,10 +13183,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="C38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -13143,10 +13199,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="C39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -13159,10 +13215,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="C40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -13175,10 +13231,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -13191,10 +13247,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -13207,10 +13263,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="C43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -13223,10 +13279,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -13239,10 +13295,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -13255,10 +13311,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -13271,10 +13327,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="C47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -13287,10 +13343,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -13303,10 +13359,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="C49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -13319,10 +13375,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -13335,10 +13391,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -13351,10 +13407,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -13367,10 +13423,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -13383,10 +13439,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="C54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -13399,10 +13455,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -13415,10 +13471,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -13431,10 +13487,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -13447,10 +13503,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -13463,10 +13519,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -13479,10 +13535,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="C60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -13495,10 +13551,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="C61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -13511,10 +13567,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="C62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -13527,10 +13583,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -13543,10 +13599,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -13559,10 +13615,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="C65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -13575,10 +13631,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="C66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -13591,10 +13647,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="C67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -13607,10 +13663,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="C68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -13623,10 +13679,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="C69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -13639,10 +13695,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="C70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -13655,10 +13711,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="C71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -13671,10 +13727,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="C72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -13687,10 +13743,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="C73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -13703,10 +13759,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="C74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -13719,10 +13775,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -13735,10 +13791,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="C76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -13751,10 +13807,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="C77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -13767,10 +13823,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="C78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -13783,10 +13839,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -13799,10 +13855,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="C80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -13815,10 +13871,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -13831,10 +13887,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="C82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -13847,10 +13903,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="C83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -13863,10 +13919,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="C84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -13879,10 +13935,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="C85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -13895,10 +13951,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="C86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -13911,10 +13967,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="C87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -13927,10 +13983,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="C88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -13943,10 +13999,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="C89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -13959,10 +14015,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="C90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -13975,10 +14031,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="C91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -13991,10 +14047,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="C92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -14007,10 +14063,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="C93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -14023,10 +14079,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="C94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -14039,10 +14095,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="C95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -14055,10 +14111,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="C96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -14071,10 +14127,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="C97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -14087,10 +14143,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="C98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -14103,10 +14159,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="C99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -14119,10 +14175,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -14135,10 +14191,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="C101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -14151,10 +14207,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="C102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -14167,10 +14223,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="C103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -14183,10 +14239,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="C104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -14199,10 +14255,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="C105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -14215,10 +14271,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="C106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -14231,10 +14287,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="C107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -14247,10 +14303,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="C108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -14263,10 +14319,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="C109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -14279,10 +14335,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="C110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -14295,10 +14351,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="C111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -14311,10 +14367,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="C112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -14327,10 +14383,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="C113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -14343,10 +14399,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="C114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -14359,10 +14415,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="C115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -14375,10 +14431,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="C116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -14391,10 +14447,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="C117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -14407,10 +14463,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="C118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -14423,10 +14479,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="C119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -14439,10 +14495,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="C120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -14455,10 +14511,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="C121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -14471,10 +14527,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="C122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -14487,10 +14543,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="C123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -14503,10 +14559,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="C124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -14519,10 +14575,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="C125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -14535,10 +14591,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="C126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -14551,10 +14607,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="C127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -14567,10 +14623,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="C128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -14583,10 +14639,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="C129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -14599,10 +14655,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="C130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -14615,10 +14671,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="C131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -14631,10 +14687,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="C132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -14647,10 +14703,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="C133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -14663,10 +14719,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="C134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -14679,10 +14735,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="C135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -14695,10 +14751,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="C136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -14711,10 +14767,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="C137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -14727,10 +14783,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="C138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -14743,10 +14799,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="C139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -14759,10 +14815,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="C140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -14775,10 +14831,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="C141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -14791,10 +14847,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="C142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -14807,10 +14863,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="C143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -14823,10 +14879,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="C144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -14839,10 +14895,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="C145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -14855,10 +14911,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="C146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -14871,10 +14927,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="C147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -14887,10 +14943,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="C148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -14903,10 +14959,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="C149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -14919,10 +14975,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="C150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -14935,10 +14991,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -14951,10 +15007,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="C152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -14984,14 +15040,14 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F201:F202 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="B1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -15002,12 +15058,12 @@
         <v>Algiers</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -15018,12 +15074,12 @@
         <v>Annaba</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -15034,12 +15090,12 @@
         <v>Azazga</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -15050,12 +15106,12 @@
         <v>Batna City</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="B5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -15066,12 +15122,12 @@
         <v>Blida</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="B6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -15082,12 +15138,12 @@
         <v>Bordj</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="B7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -15098,12 +15154,12 @@
         <v>Bordj Bou Arreridj</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="B8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -15114,12 +15170,12 @@
         <v>Bougara</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="B9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -15130,12 +15186,12 @@
         <v>Cheraga</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="B10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -15146,12 +15202,12 @@
         <v>Chlef</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="B11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -15162,12 +15218,12 @@
         <v>Constantine</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="B12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -15178,12 +15234,12 @@
         <v>Djelfa</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="B13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -15194,12 +15250,12 @@
         <v>Draria</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="B14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -15210,12 +15266,12 @@
         <v>El Tarf</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="B15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -15226,12 +15282,12 @@
         <v>Hussein Dey</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="B16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -15242,12 +15298,12 @@
         <v>Illizi</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="B17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -15258,12 +15314,12 @@
         <v>Jijel</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="B18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -15274,12 +15330,12 @@
         <v>Kouba</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="B19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -15290,12 +15346,12 @@
         <v>Laghouat</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="B20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -15306,12 +15362,12 @@
         <v>Oran</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="B21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -15322,12 +15378,12 @@
         <v>Ouargla</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="B22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -15338,12 +15394,12 @@
         <v>Oued Smar</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -15354,12 +15410,12 @@
         <v>Relizane</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="B24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -15370,12 +15426,12 @@
         <v>Rouiba</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="B25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -15386,12 +15442,12 @@
         <v>Saida</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="B26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -15402,12 +15458,12 @@
         <v>Souk Ahras</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="B27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -15418,12 +15474,12 @@
         <v>Tamanghasset</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="B28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -15434,12 +15490,12 @@
         <v>Tiaret</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="B29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -15450,12 +15506,12 @@
         <v>Tissemsilt</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="B30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -15466,12 +15522,12 @@
         <v>Tizi</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="B31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -15482,12 +15538,12 @@
         <v>Tizi Ouzou</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="B32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -15498,12 +15554,12 @@
         <v>Tlemcen</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="B33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -15514,12 +15570,12 @@
         <v>Abraq Khaytan</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="B34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -15530,12 +15586,12 @@
         <v>Ad Dasmah</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="B35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -15546,12 +15602,12 @@
         <v>Ad Dawhah</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="B36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -15562,12 +15618,12 @@
         <v>Al Ahmadi</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="B37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -15578,12 +15634,12 @@
         <v>Al Farwaniyah</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="B38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -15594,12 +15650,12 @@
         <v>Al Shamiya</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="B39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -15610,12 +15666,12 @@
         <v>Ar Rawdah</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="B40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -15626,12 +15682,12 @@
         <v>As Salimiyah</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -15642,12 +15698,12 @@
         <v>Ash Shu`aybah</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="B42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -15658,12 +15714,12 @@
         <v>Ash Shuwaykh</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="B43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -15674,12 +15730,12 @@
         <v>Bayan</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="B44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -15690,12 +15746,12 @@
         <v>Hawalli</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -15706,12 +15762,12 @@
         <v>Janub as Surrah</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -15722,12 +15778,12 @@
         <v>Kayfan</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="B47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -15738,12 +15794,12 @@
         <v>Kuwait City</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -15754,12 +15810,12 @@
         <v>Salwa</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -15770,12 +15826,12 @@
         <v>Abha</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -15786,12 +15842,12 @@
         <v>Abqaiq</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -15802,12 +15858,12 @@
         <v>Al_Bahah</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="B52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -15818,12 +15874,12 @@
         <v>Al_Faruq</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -15834,12 +15890,12 @@
         <v>Al_Hufuf</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -15850,12 +15906,12 @@
         <v>Al_Qatif</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -15866,12 +15922,12 @@
         <v>Al_Yamamah</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="B56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -15882,12 +15938,12 @@
         <v>At_Tuwal</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -15898,12 +15954,12 @@
         <v>Buraidah</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -15914,12 +15970,12 @@
         <v>Dammam</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="B59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -15930,12 +15986,12 @@
         <v>Dhahran</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -15946,12 +16002,12 @@
         <v>Hayil</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -15962,12 +16018,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -15978,12 +16034,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="B63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -15994,12 +16050,12 @@
         <v>Jeddah</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="B64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -16010,12 +16066,12 @@
         <v>Jizan</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="B65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -16026,12 +16082,12 @@
         <v>Jubail</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="B66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -16042,12 +16098,12 @@
         <v>Khamis_Mushait</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="B67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -16058,12 +16114,12 @@
         <v>Khobar</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -16074,12 +16130,12 @@
         <v>Khulays</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -16090,12 +16146,12 @@
         <v>Linah</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -16106,12 +16162,12 @@
         <v>Madinat_Yanbu__as_Sina_iyah</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="B71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -16122,12 +16178,12 @@
         <v>Mecca</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="B72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -16138,12 +16194,12 @@
         <v>Medina</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -16154,12 +16210,12 @@
         <v>Mina</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="B74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -16170,12 +16226,12 @@
         <v>Najran</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="B75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -16186,12 +16242,12 @@
         <v>Rabigh</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="B76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -16202,12 +16258,12 @@
         <v>Rahimah</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="B77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -16218,12 +16274,12 @@
         <v>Rahman</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="B78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -16234,12 +16290,12 @@
         <v>Ramdah</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="B79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -16250,12 +16306,12 @@
         <v>Ras_Tanura</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="B80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -16266,12 +16322,12 @@
         <v>Riyadh</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="B81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -16282,12 +16338,12 @@
         <v>Sabya</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="B82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -16298,12 +16354,12 @@
         <v>Safwa</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -16314,12 +16370,12 @@
         <v>Sakaka</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="B84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -16330,12 +16386,12 @@
         <v>Sambah</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="B85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -16346,12 +16402,12 @@
         <v>Sayhat</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="B86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -16362,12 +16418,12 @@
         <v>Tabuk</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="B87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -16378,12 +16434,12 @@
         <v>Yanbu__al_Bahr</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -16394,12 +16450,12 @@
         <v>Abu_Hammad</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="B89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -16410,12 +16466,12 @@
         <v>Al_Mahallah_al_Kubra</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -16426,12 +16482,12 @@
         <v>Al_Mansurah</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -16442,12 +16498,12 @@
         <v>Al_Marj</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -16458,12 +16514,12 @@
         <v>Alexandria</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="B93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -16474,12 +16530,12 @@
         <v>Almazah</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -16490,12 +16546,12 @@
         <v>Ar_Rawdah</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="B95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -16506,12 +16562,12 @@
         <v>Assiut</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -16522,12 +16578,12 @@
         <v>Az_Zamalik</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -16538,12 +16594,12 @@
         <v>Badr</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -16554,12 +16610,12 @@
         <v>Banha</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -16570,12 +16626,12 @@
         <v>Bani_Suwayf</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="B100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -16586,12 +16642,12 @@
         <v>Cairo</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -16602,12 +16658,12 @@
         <v>Damietta</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="B102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -16618,12 +16674,12 @@
         <v>Faraskur</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="B103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -16634,12 +16690,12 @@
         <v>Flaminj</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -16650,12 +16706,12 @@
         <v>Giza</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -16666,12 +16722,12 @@
         <v>Heliopolis</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -16682,12 +16738,12 @@
         <v>Helwan</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -16698,12 +16754,12 @@
         <v>Hurghada</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -16714,12 +16770,12 @@
         <v>Ismailia</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -16730,12 +16786,12 @@
         <v>Kafr_ash_Shaykh</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -16746,12 +16802,12 @@
         <v>Luxor</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -16762,12 +16818,12 @@
         <v>Madinat_an_Nasr</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -16778,12 +16834,12 @@
         <v>Madinat_as_Sadis_min_Uktubar</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -16794,12 +16850,12 @@
         <v>Minya</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -16810,12 +16866,12 @@
         <v>Nasr</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -16826,12 +16882,12 @@
         <v>New_Cairo</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -16842,12 +16898,12 @@
         <v>Port_Said</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -16858,12 +16914,12 @@
         <v>Rafah</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -16874,12 +16930,12 @@
         <v>Ramsis</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -16890,12 +16946,12 @@
         <v>Sadat</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -16906,12 +16962,12 @@
         <v>Shirbin</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -16922,12 +16978,12 @@
         <v>Shubra</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -16938,12 +16994,12 @@
         <v>Sohag</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -16954,12 +17010,12 @@
         <v>Suez</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -16970,12 +17026,12 @@
         <v>Tanta</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -16986,12 +17042,12 @@
         <v>Toukh</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -17002,12 +17058,12 @@
         <v>Zagazig</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -17018,12 +17074,12 @@
         <v>Abu_Dhabi</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="B128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -17034,12 +17090,12 @@
         <v>Al_Ain</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="B129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -17050,12 +17106,12 @@
         <v>Al_Khan</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -17066,12 +17122,12 @@
         <v>Ar_Ruways</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="B131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -17082,12 +17138,12 @@
         <v>As_Satwah</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="B132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -17098,12 +17154,12 @@
         <v>Dayrah</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="B133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -17114,12 +17170,12 @@
         <v>Dubai</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="B134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -17130,12 +17186,12 @@
         <v>Fujairah</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="B135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -17146,12 +17202,12 @@
         <v>Ras_al_Khaimah</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -17162,12 +17218,12 @@
         <v>Sharjah</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="B137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -17178,12 +17234,12 @@
         <v>Al Budayyi`</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="B138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -17194,12 +17250,12 @@
         <v>Al Hadd</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="B139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -17210,12 +17266,12 @@
         <v>Al Hamalah</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="B140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -17226,12 +17282,12 @@
         <v>Al Janabiyah</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="B141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -17242,12 +17298,12 @@
         <v>Al Markh</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="B142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -17258,12 +17314,12 @@
         <v>Al Muharraq</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="B143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -17274,12 +17330,12 @@
         <v>Bani Jamrah</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="B144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -17290,12 +17346,12 @@
         <v>Barbar</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="B145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -17306,12 +17362,12 @@
         <v>Jurdab</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="B146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -17322,12 +17378,12 @@
         <v>Madinat `Isa</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="B147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -17338,12 +17394,12 @@
         <v>Madinat Hamad</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="B148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -17354,12 +17410,12 @@
         <v>Manama</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="B149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -17370,12 +17426,12 @@
         <v>Oil City</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="B150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -17386,12 +17442,12 @@
         <v>Sanabis</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="B151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -17402,12 +17458,12 @@
         <v>Sanad</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="B152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -17418,12 +17474,12 @@
         <v>Sitrah</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="B153" s="2" t="str">
         <f aca="false">TRIM(A153)</f>
@@ -17434,7 +17490,7 @@
         <v>Tubli</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
     </row>
   </sheetData>
@@ -17456,35 +17512,35 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+      <selection pane="topLeft" activeCell="B46" activeCellId="1" sqref="F201:F202 B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17492,10 +17548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>6068695</v>
@@ -17510,20 +17566,20 @@
         <v>7947121</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J2" s="1" t="str">
         <f aca="false">B2</f>
         <v>Cairo</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17531,10 +17587,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2926859</v>
@@ -17549,20 +17605,20 @@
         <v>4247414</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J3" s="1" t="str">
         <f aca="false">B3</f>
         <v>Alexandria</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17570,10 +17626,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1883189</v>
@@ -17588,20 +17644,20 @@
         <v>3258540</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J4" s="1" t="str">
         <f aca="false">B4</f>
         <v>Gizeh</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17609,10 +17665,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>714594</v>
@@ -17627,20 +17683,20 @@
         <v>1045370</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J5" s="1" t="str">
         <f aca="false">B5</f>
         <v>Shubra El-Kheima</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17648,10 +17704,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>401172</v>
@@ -17666,20 +17722,20 @@
         <v>588935</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J6" s="1" t="str">
         <f aca="false">B6</f>
         <v>Port Said</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17687,10 +17743,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>327717</v>
@@ -17705,20 +17761,20 @@
         <v>529055</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J7" s="1" t="str">
         <f aca="false">B7</f>
         <v>Suez</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17726,10 +17782,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>274074</v>
@@ -17744,20 +17800,20 @@
         <v>469440</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J8" s="1" t="str">
         <f aca="false">B8</f>
         <v>Luxor</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17765,10 +17821,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>317508</v>
@@ -17783,20 +17839,20 @@
         <v>465375</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J9" s="1" t="str">
         <f aca="false">B9</f>
         <v>al-Mansura</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17804,10 +17860,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>306509</v>
@@ -17822,20 +17878,20 @@
         <v>450833</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J10" s="1" t="str">
         <f aca="false">B10</f>
         <v>El-Mahalla El-Kubra</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17843,10 +17899,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>336517</v>
@@ -17861,20 +17917,20 @@
         <v>429632</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J11" s="1" t="str">
         <f aca="false">B11</f>
         <v>Tanta</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17882,10 +17938,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>272986</v>
@@ -17900,20 +17956,20 @@
         <v>394961</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J12" s="1" t="str">
         <f aca="false">B12</f>
         <v>Asyut</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17921,10 +17977,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>158045</v>
@@ -17939,20 +17995,20 @@
         <v>338429</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J13" s="1" t="str">
         <f aca="false">B13</f>
         <v>Ismailia</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17960,10 +18016,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>213070</v>
@@ -17978,20 +18034,20 @@
         <v>327917</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J14" s="1" t="str">
         <f aca="false">B14</f>
         <v>Fayyum</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17999,10 +18055,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>244354</v>
@@ -18017,20 +18073,20 @@
         <v>308637</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J15" s="1" t="str">
         <f aca="false">B15</f>
         <v>Zagazig</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18038,10 +18094,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>190579</v>
@@ -18056,20 +18112,20 @@
         <v>273450</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J16" s="1" t="str">
         <f aca="false">B16</f>
         <v>Aswan</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18077,10 +18133,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>89498</v>
@@ -18095,20 +18151,20 @@
         <v>266627</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J17" s="1" t="str">
         <f aca="false">B17</f>
         <v>Damietta</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18116,10 +18172,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>188939</v>
@@ -18134,20 +18190,20 @@
         <v>247074</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J18" s="1" t="str">
         <f aca="false">B18</f>
         <v>Damanhur</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18155,10 +18211,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>179060</v>
@@ -18173,20 +18229,20 @@
         <v>246835</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J19" s="1" t="str">
         <f aca="false">B19</f>
         <v>al-Minya</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18194,10 +18250,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>152476</v>
@@ -18212,20 +18268,20 @@
         <v>218472</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J20" s="1" t="str">
         <f aca="false">B20</f>
         <v>Beni Suef</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18233,10 +18289,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>119917</v>
@@ -18251,20 +18307,20 @@
         <v>214851</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J21" s="1" t="str">
         <f aca="false">B21</f>
         <v>Qena</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18272,10 +18328,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>132649</v>
@@ -18290,20 +18346,20 @@
         <v>193931</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J22" s="1" t="str">
         <f aca="false">B22</f>
         <v>Sohag</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18311,10 +18367,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>132649</v>
@@ -18329,20 +18385,20 @@
         <v>189660</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J23" s="1" t="str">
         <f aca="false">B23</f>
         <v>Hurghada</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18350,13 +18406,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>35477</v>
@@ -18368,20 +18424,20 @@
         <v>183859</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J24" s="1" t="str">
         <f aca="false">B24</f>
         <v>6th of October City</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18389,10 +18445,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>132751</v>
@@ -18407,20 +18463,20 @@
         <v>180454</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J25" s="1" t="str">
         <f aca="false">B25</f>
         <v>Shibin El Kom</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18428,10 +18484,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>115701</v>
@@ -18446,20 +18502,20 @@
         <v>161263</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J26" s="1" t="str">
         <f aca="false">B26</f>
         <v>Banha</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,10 +18523,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>103301</v>
@@ -18485,20 +18541,20 @@
         <v>151781</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J27" s="1" t="str">
         <f aca="false">B27</f>
         <v>Kafr el-Sheikh</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18506,10 +18562,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>67337</v>
@@ -18524,20 +18580,20 @@
         <v>146758</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J28" s="1" t="str">
         <f aca="false">B28</f>
         <v>Arish</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18545,10 +18601,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>98632</v>
@@ -18563,20 +18619,20 @@
         <v>144330</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J29" s="1" t="str">
         <f aca="false">B29</f>
         <v>Mallawi</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18584,13 +18640,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>47839</v>
@@ -18602,20 +18658,20 @@
         <v>143753</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J30" s="1" t="str">
         <f aca="false">B30</f>
         <v>10th of Ramadan City</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18623,10 +18679,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>96511</v>
@@ -18641,20 +18697,20 @@
         <v>140892</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J31" s="1" t="str">
         <f aca="false">B31</f>
         <v>Bilbais</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18662,10 +18718,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>43157</v>
@@ -18680,20 +18736,20 @@
         <v>137704</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J32" s="1" t="str">
         <f aca="false">B32</f>
         <v>Marsa Matruh</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18701,10 +18757,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>46163</v>
@@ -18719,20 +18775,20 @@
         <v>122031</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J33" s="1" t="str">
         <f aca="false">B33</f>
         <v>Idfu</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18740,10 +18796,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>91927</v>
@@ -18758,20 +18814,20 @@
         <v>118618</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J34" s="1" t="str">
         <f aca="false">B34</f>
         <v>Mit Ghamr</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18779,10 +18835,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>73298</v>
@@ -18797,20 +18853,20 @@
         <v>113128</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J35" s="1" t="str">
         <f aca="false">B35</f>
         <v>Al-Hamidiyya</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18818,10 +18874,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>78316</v>
@@ -18836,20 +18892,20 @@
         <v>109787</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J36" s="1" t="str">
         <f aca="false">B36</f>
         <v>Desouk</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18857,10 +18913,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>84413</v>
@@ -18875,20 +18931,20 @@
         <v>108573</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J37" s="1" t="str">
         <f aca="false">B37</f>
         <v>Qalyub</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18896,10 +18952,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>68394</v>
@@ -18914,20 +18970,20 @@
         <v>106050</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J38" s="1" t="str">
         <f aca="false">B38</f>
         <v>Abu Kabir</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18935,10 +18991,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>196244</v>
@@ -18953,20 +19009,20 @@
         <v>105671</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J39" s="1" t="str">
         <f aca="false">B39</f>
         <v>Kafr el-Dawwar</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18974,10 +19030,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>71564</v>
@@ -18992,20 +19048,20 @@
         <v>104712</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J40" s="1" t="str">
         <f aca="false">B40</f>
         <v>Girga</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19013,10 +19069,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>70602</v>
@@ -19031,20 +19087,20 @@
         <v>104454</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J41" s="1" t="str">
         <f aca="false">B41</f>
         <v>Akhmim</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19052,10 +19108,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>74554</v>
@@ -19070,20 +19126,20 @@
         <v>103004</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="J42" s="1" t="str">
         <f aca="false">B42</f>
         <v>Matareya</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="1709">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">المراجعات</t>
   </si>
   <si>
-    <t xml:space="preserve">search_teacher </t>
+    <t xml:space="preserve">search_teacher</t>
   </si>
   <si>
     <t xml:space="preserve">Search a Teacher</t>
@@ -1777,6 +1777,15 @@
   </si>
   <si>
     <t xml:space="preserve">شارك مع أَصدقائك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_teacher_process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Select the teacher First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فضلك أختر المعلم أولا</t>
   </si>
   <si>
     <t xml:space="preserve">Afghan</t>
@@ -5358,10 +5367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D208" activeCellId="0" sqref="D208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D141" activeCellId="0" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9594,11 +9603,33 @@
         <v>'share_app':'شارك مع أَصدقائك',</v>
       </c>
     </row>
+    <row r="207" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E207" s="2" t="str">
+        <f aca="false">""""&amp;TRIM(B207)&amp;""":"&amp;""""&amp;TRIM(C207)&amp;""","</f>
+        <v>"select_teacher_process":"Please Select the teacher First",</v>
+      </c>
+      <c r="F207" s="2" t="str">
+        <f aca="false">"'"&amp;TRIM(B207)&amp;"':"&amp;"'"&amp;TRIM(D207)&amp;"',"</f>
+        <v>'select_teacher_process':'من فضلك أختر المعلم أولا',</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B207:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203">
+  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B207:B1048576 B1:B170 B185 B187:B192 B197 B200:B203">
+  <conditionalFormatting sqref="B209:B1048576 B1:B170 B185 B187:B192 B197 B200:B203">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9626,3082 +9657,3082 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -12733,10 +12764,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="C1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -12749,10 +12780,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -12765,10 +12796,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -12781,10 +12812,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -12797,10 +12828,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -12813,10 +12844,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -12829,10 +12860,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -12845,10 +12876,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -12861,10 +12892,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -12877,10 +12908,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -12893,10 +12924,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -12909,10 +12940,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -12925,10 +12956,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -12941,10 +12972,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -12957,10 +12988,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -12973,10 +13004,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -12989,10 +13020,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -13005,10 +13036,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -13021,10 +13052,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -13037,10 +13068,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -13053,10 +13084,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -13069,10 +13100,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -13085,10 +13116,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -13101,10 +13132,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -13117,10 +13148,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -13133,10 +13164,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -13149,10 +13180,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -13165,10 +13196,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -13181,10 +13212,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -13197,10 +13228,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -13213,10 +13244,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -13229,10 +13260,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -13245,10 +13276,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -13261,10 +13292,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -13277,10 +13308,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="C35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -13293,10 +13324,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -13309,10 +13340,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -13325,10 +13356,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -13341,10 +13372,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -13357,10 +13388,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="C40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -13373,10 +13404,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -13389,10 +13420,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -13405,10 +13436,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -13421,10 +13452,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -13437,10 +13468,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -13453,10 +13484,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -13469,10 +13500,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="C47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -13485,10 +13516,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="C48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -13501,10 +13532,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -13517,10 +13548,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -13533,10 +13564,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="C51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -13549,10 +13580,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="C52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -13565,10 +13596,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -13581,10 +13612,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -13597,10 +13628,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="C55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -13613,10 +13644,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -13629,10 +13660,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -13645,10 +13676,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="C58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -13661,10 +13692,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="C59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -13677,10 +13708,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -13693,10 +13724,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -13709,10 +13740,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -13725,10 +13756,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -13741,10 +13772,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="C64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -13757,10 +13788,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -13773,10 +13804,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -13789,10 +13820,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="C67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -13805,10 +13836,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="C68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -13821,10 +13852,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -13837,10 +13868,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -13853,10 +13884,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="C71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -13869,10 +13900,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -13885,10 +13916,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -13901,10 +13932,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -13917,10 +13948,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -13933,10 +13964,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -13949,10 +13980,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -13965,10 +13996,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="C78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -13981,10 +14012,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="C79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -13997,10 +14028,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="C80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -14013,10 +14044,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -14029,10 +14060,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="C82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -14045,10 +14076,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -14061,10 +14092,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -14077,10 +14108,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="C85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -14093,10 +14124,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="C86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -14109,10 +14140,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -14125,10 +14156,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="C88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -14141,10 +14172,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="C89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -14157,10 +14188,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -14173,10 +14204,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="C91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -14189,10 +14220,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="C92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -14205,10 +14236,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -14221,10 +14252,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="C94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -14237,10 +14268,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="C95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -14253,10 +14284,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -14269,10 +14300,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="C97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -14285,10 +14316,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="C98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -14301,10 +14332,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -14317,10 +14348,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -14333,10 +14364,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -14349,10 +14380,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -14365,10 +14396,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="C103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -14381,10 +14412,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -14397,10 +14428,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="C105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -14413,10 +14444,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="C106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -14429,10 +14460,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -14445,10 +14476,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -14461,10 +14492,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -14477,10 +14508,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -14493,10 +14524,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -14509,10 +14540,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -14525,10 +14556,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -14541,10 +14572,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -14557,10 +14588,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -14573,10 +14604,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -14589,10 +14620,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="C117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -14605,10 +14636,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -14621,10 +14652,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="C119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -14637,10 +14668,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -14653,10 +14684,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -14669,10 +14700,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="C122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -14685,10 +14716,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -14701,10 +14732,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="C124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -14717,10 +14748,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="C125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -14733,10 +14764,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -14749,10 +14780,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -14765,10 +14796,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -14781,10 +14812,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -14797,10 +14828,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -14813,10 +14844,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -14829,10 +14860,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -14845,10 +14876,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -14861,10 +14892,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -14877,10 +14908,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -14893,10 +14924,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -14909,10 +14940,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="C137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -14925,10 +14956,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -14941,10 +14972,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -14957,10 +14988,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="C140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -14973,10 +15004,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="C141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -14989,10 +15020,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="C142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -15005,10 +15036,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="C143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -15021,10 +15052,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -15037,10 +15068,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="C145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -15053,10 +15084,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -15069,10 +15100,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="C147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -15085,10 +15116,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -15101,10 +15132,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="C149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -15117,10 +15148,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="C150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -15133,10 +15164,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -15149,10 +15180,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="C152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -15189,7 +15220,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B1" s="2" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -15200,12 +15231,12 @@
         <v>Algiers</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -15216,12 +15247,12 @@
         <v>Annaba</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -15232,12 +15263,12 @@
         <v>Azazga</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -15248,12 +15279,12 @@
         <v>Batna City</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B5" s="2" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -15264,12 +15295,12 @@
         <v>Blida</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B6" s="2" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -15280,12 +15311,12 @@
         <v>Bordj</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B7" s="2" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -15296,12 +15327,12 @@
         <v>Bordj Bou Arreridj</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B8" s="2" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -15312,12 +15343,12 @@
         <v>Bougara</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B9" s="2" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -15328,12 +15359,12 @@
         <v>Cheraga</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B10" s="2" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -15344,12 +15375,12 @@
         <v>Chlef</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B11" s="2" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -15360,12 +15391,12 @@
         <v>Constantine</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B12" s="2" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -15376,12 +15407,12 @@
         <v>Djelfa</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B13" s="2" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -15392,12 +15423,12 @@
         <v>Draria</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B14" s="2" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -15408,12 +15439,12 @@
         <v>El Tarf</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B15" s="2" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -15424,12 +15455,12 @@
         <v>Hussein Dey</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="B16" s="2" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -15440,12 +15471,12 @@
         <v>Illizi</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B17" s="2" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -15456,12 +15487,12 @@
         <v>Jijel</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B18" s="2" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -15472,12 +15503,12 @@
         <v>Kouba</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B19" s="2" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -15488,12 +15519,12 @@
         <v>Laghouat</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B20" s="2" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -15504,12 +15535,12 @@
         <v>Oran</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B21" s="2" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -15520,12 +15551,12 @@
         <v>Ouargla</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B22" s="2" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -15536,12 +15567,12 @@
         <v>Oued Smar</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B23" s="2" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -15552,12 +15583,12 @@
         <v>Relizane</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B24" s="2" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -15568,12 +15599,12 @@
         <v>Rouiba</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B25" s="2" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -15584,12 +15615,12 @@
         <v>Saida</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="B26" s="2" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -15600,12 +15631,12 @@
         <v>Souk Ahras</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B27" s="2" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -15616,12 +15647,12 @@
         <v>Tamanghasset</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B28" s="2" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -15632,12 +15663,12 @@
         <v>Tiaret</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="B29" s="2" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -15648,12 +15679,12 @@
         <v>Tissemsilt</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B30" s="2" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -15664,12 +15695,12 @@
         <v>Tizi</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B31" s="2" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -15680,12 +15711,12 @@
         <v>Tizi Ouzou</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B32" s="2" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -15696,12 +15727,12 @@
         <v>Tlemcen</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B33" s="2" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -15712,12 +15743,12 @@
         <v>Abraq Khaytan</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B34" s="2" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -15728,12 +15759,12 @@
         <v>Ad Dasmah</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B35" s="2" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -15744,12 +15775,12 @@
         <v>Ad Dawhah</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B36" s="2" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -15760,12 +15791,12 @@
         <v>Al Ahmadi</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B37" s="2" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -15776,12 +15807,12 @@
         <v>Al Farwaniyah</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B38" s="2" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -15792,12 +15823,12 @@
         <v>Al Shamiya</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B39" s="2" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -15808,12 +15839,12 @@
         <v>Ar Rawdah</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B40" s="2" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -15824,12 +15855,12 @@
         <v>As Salimiyah</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B41" s="2" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -15840,12 +15871,12 @@
         <v>Ash Shu`aybah</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B42" s="2" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -15856,12 +15887,12 @@
         <v>Ash Shuwaykh</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B43" s="2" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -15872,12 +15903,12 @@
         <v>Bayan</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="B44" s="2" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -15888,12 +15919,12 @@
         <v>Hawalli</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B45" s="2" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -15904,12 +15935,12 @@
         <v>Janub as Surrah</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B46" s="2" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -15920,12 +15951,12 @@
         <v>Kayfan</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B47" s="2" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -15936,12 +15967,12 @@
         <v>Kuwait City</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B48" s="2" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -15952,12 +15983,12 @@
         <v>Salwa</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B49" s="2" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -15968,12 +15999,12 @@
         <v>Abha</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B50" s="2" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -15984,12 +16015,12 @@
         <v>Abqaiq</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B51" s="2" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -16000,12 +16031,12 @@
         <v>Al_Bahah</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B52" s="2" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -16016,12 +16047,12 @@
         <v>Al_Faruq</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B53" s="2" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -16032,12 +16063,12 @@
         <v>Al_Hufuf</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B54" s="2" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -16048,12 +16079,12 @@
         <v>Al_Qatif</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B55" s="2" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -16064,12 +16095,12 @@
         <v>Al_Yamamah</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B56" s="2" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -16080,12 +16111,12 @@
         <v>At_Tuwal</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B57" s="2" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -16096,12 +16127,12 @@
         <v>Buraidah</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B58" s="2" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -16112,12 +16143,12 @@
         <v>Dammam</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B59" s="2" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -16128,12 +16159,12 @@
         <v>Dhahran</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B60" s="2" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -16144,12 +16175,12 @@
         <v>Hayil</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B61" s="2" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -16160,12 +16191,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B62" s="2" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -16176,12 +16207,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B63" s="2" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -16192,12 +16223,12 @@
         <v>Jeddah</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B64" s="2" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -16208,12 +16239,12 @@
         <v>Jizan</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B65" s="2" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -16224,12 +16255,12 @@
         <v>Jubail</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B66" s="2" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -16240,12 +16271,12 @@
         <v>Khamis_Mushait</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B67" s="2" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -16256,12 +16287,12 @@
         <v>Khobar</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B68" s="2" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -16272,12 +16303,12 @@
         <v>Khulays</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B69" s="2" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -16288,12 +16319,12 @@
         <v>Linah</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B70" s="2" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -16304,12 +16335,12 @@
         <v>Madinat_Yanbu__as_Sina_iyah</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B71" s="2" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -16320,12 +16351,12 @@
         <v>Mecca</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B72" s="2" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -16336,12 +16367,12 @@
         <v>Medina</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B73" s="2" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -16352,12 +16383,12 @@
         <v>Mina</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B74" s="2" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -16368,12 +16399,12 @@
         <v>Najran</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B75" s="2" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -16384,12 +16415,12 @@
         <v>Rabigh</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B76" s="2" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -16400,12 +16431,12 @@
         <v>Rahimah</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B77" s="2" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -16416,12 +16447,12 @@
         <v>Rahman</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B78" s="2" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -16432,12 +16463,12 @@
         <v>Ramdah</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B79" s="2" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -16448,12 +16479,12 @@
         <v>Ras_Tanura</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B80" s="2" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -16464,12 +16495,12 @@
         <v>Riyadh</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B81" s="2" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -16480,12 +16511,12 @@
         <v>Sabya</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B82" s="2" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -16496,12 +16527,12 @@
         <v>Safwa</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B83" s="2" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -16512,12 +16543,12 @@
         <v>Sakaka</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B84" s="2" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -16528,12 +16559,12 @@
         <v>Sambah</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B85" s="2" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -16544,12 +16575,12 @@
         <v>Sayhat</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B86" s="2" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -16560,12 +16591,12 @@
         <v>Tabuk</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B87" s="2" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -16576,12 +16607,12 @@
         <v>Yanbu__al_Bahr</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B88" s="2" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -16592,12 +16623,12 @@
         <v>Abu_Hammad</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B89" s="2" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -16608,12 +16639,12 @@
         <v>Al_Mahallah_al_Kubra</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B90" s="2" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -16624,12 +16655,12 @@
         <v>Al_Mansurah</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B91" s="2" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -16640,12 +16671,12 @@
         <v>Al_Marj</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B92" s="2" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -16656,12 +16687,12 @@
         <v>Alexandria</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B93" s="2" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -16672,12 +16703,12 @@
         <v>Almazah</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B94" s="2" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -16688,12 +16719,12 @@
         <v>Ar_Rawdah</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B95" s="2" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -16704,12 +16735,12 @@
         <v>Assiut</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B96" s="2" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -16720,12 +16751,12 @@
         <v>Az_Zamalik</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B97" s="2" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -16736,12 +16767,12 @@
         <v>Badr</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B98" s="2" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -16752,12 +16783,12 @@
         <v>Banha</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B99" s="2" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -16768,12 +16799,12 @@
         <v>Bani_Suwayf</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B100" s="2" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -16784,12 +16815,12 @@
         <v>Cairo</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B101" s="2" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -16800,12 +16831,12 @@
         <v>Damietta</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B102" s="2" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -16816,12 +16847,12 @@
         <v>Faraskur</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B103" s="2" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -16832,12 +16863,12 @@
         <v>Flaminj</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B104" s="2" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -16848,12 +16879,12 @@
         <v>Giza</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B105" s="2" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -16864,12 +16895,12 @@
         <v>Heliopolis</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B106" s="2" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -16880,12 +16911,12 @@
         <v>Helwan</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B107" s="2" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -16896,12 +16927,12 @@
         <v>Hurghada</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B108" s="2" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -16912,12 +16943,12 @@
         <v>Ismailia</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B109" s="2" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -16928,12 +16959,12 @@
         <v>Kafr_ash_Shaykh</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B110" s="2" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -16944,12 +16975,12 @@
         <v>Luxor</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B111" s="2" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -16960,12 +16991,12 @@
         <v>Madinat_an_Nasr</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B112" s="2" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -16976,12 +17007,12 @@
         <v>Madinat_as_Sadis_min_Uktubar</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B113" s="2" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -16992,12 +17023,12 @@
         <v>Minya</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B114" s="2" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -17008,12 +17039,12 @@
         <v>Nasr</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B115" s="2" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -17024,12 +17055,12 @@
         <v>New_Cairo</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B116" s="2" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -17040,12 +17071,12 @@
         <v>Port_Said</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B117" s="2" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -17056,12 +17087,12 @@
         <v>Rafah</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B118" s="2" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -17072,12 +17103,12 @@
         <v>Ramsis</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B119" s="2" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -17088,12 +17119,12 @@
         <v>Sadat</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B120" s="2" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -17104,12 +17135,12 @@
         <v>Shirbin</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B121" s="2" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -17120,12 +17151,12 @@
         <v>Shubra</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B122" s="2" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -17136,12 +17167,12 @@
         <v>Sohag</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B123" s="2" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -17152,12 +17183,12 @@
         <v>Suez</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B124" s="2" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -17168,12 +17199,12 @@
         <v>Tanta</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B125" s="2" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -17184,12 +17215,12 @@
         <v>Toukh</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B126" s="2" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -17200,12 +17231,12 @@
         <v>Zagazig</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B127" s="2" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -17216,12 +17247,12 @@
         <v>Abu_Dhabi</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B128" s="2" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -17232,12 +17263,12 @@
         <v>Al_Ain</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B129" s="2" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -17248,12 +17279,12 @@
         <v>Al_Khan</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B130" s="2" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -17264,12 +17295,12 @@
         <v>Ar_Ruways</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B131" s="2" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -17280,12 +17311,12 @@
         <v>As_Satwah</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B132" s="2" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -17296,12 +17327,12 @@
         <v>Dayrah</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B133" s="2" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -17312,12 +17343,12 @@
         <v>Dubai</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B134" s="2" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -17328,12 +17359,12 @@
         <v>Fujairah</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B135" s="2" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -17344,12 +17375,12 @@
         <v>Ras_al_Khaimah</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B136" s="2" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -17360,12 +17391,12 @@
         <v>Sharjah</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B137" s="2" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -17376,12 +17407,12 @@
         <v>Al Budayyi`</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B138" s="2" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -17392,12 +17423,12 @@
         <v>Al Hadd</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="B139" s="2" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -17408,12 +17439,12 @@
         <v>Al Hamalah</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B140" s="2" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -17424,12 +17455,12 @@
         <v>Al Janabiyah</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B141" s="2" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -17440,12 +17471,12 @@
         <v>Al Markh</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B142" s="2" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -17456,12 +17487,12 @@
         <v>Al Muharraq</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="B143" s="2" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -17472,12 +17503,12 @@
         <v>Bani Jamrah</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B144" s="2" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -17488,12 +17519,12 @@
         <v>Barbar</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B145" s="2" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -17504,12 +17535,12 @@
         <v>Jurdab</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="B146" s="2" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -17520,12 +17551,12 @@
         <v>Madinat `Isa</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B147" s="2" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -17536,12 +17567,12 @@
         <v>Madinat Hamad</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="B148" s="2" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -17552,12 +17583,12 @@
         <v>Manama</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="B149" s="2" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -17568,12 +17599,12 @@
         <v>Oil City</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B150" s="2" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -17584,12 +17615,12 @@
         <v>Sanabis</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="B151" s="2" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -17600,12 +17631,12 @@
         <v>Sanad</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B152" s="2" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -17616,12 +17647,12 @@
         <v>Sitrah</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B153" s="2" t="str">
         <f aca="false">TRIM(A153)</f>
@@ -17632,7 +17663,7 @@
         <v>Tubli</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
@@ -17661,28 +17692,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17690,10 +17721,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>6068695</v>
@@ -17708,20 +17739,20 @@
         <v>7947121</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J2" s="1" t="str">
         <f aca="false">B2</f>
         <v>Cairo</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17729,10 +17760,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2926859</v>
@@ -17747,20 +17778,20 @@
         <v>4247414</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J3" s="1" t="str">
         <f aca="false">B3</f>
         <v>Alexandria</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17768,10 +17799,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1883189</v>
@@ -17786,20 +17817,20 @@
         <v>3258540</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J4" s="1" t="str">
         <f aca="false">B4</f>
         <v>Gizeh</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17807,10 +17838,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>714594</v>
@@ -17825,20 +17856,20 @@
         <v>1045370</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J5" s="1" t="str">
         <f aca="false">B5</f>
         <v>Shubra El-Kheima</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17846,10 +17877,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>401172</v>
@@ -17864,20 +17895,20 @@
         <v>588935</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J6" s="1" t="str">
         <f aca="false">B6</f>
         <v>Port Said</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17885,10 +17916,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>327717</v>
@@ -17903,20 +17934,20 @@
         <v>529055</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J7" s="1" t="str">
         <f aca="false">B7</f>
         <v>Suez</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17924,10 +17955,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>274074</v>
@@ -17942,20 +17973,20 @@
         <v>469440</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J8" s="1" t="str">
         <f aca="false">B8</f>
         <v>Luxor</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17963,10 +17994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>317508</v>
@@ -17981,20 +18012,20 @@
         <v>465375</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J9" s="1" t="str">
         <f aca="false">B9</f>
         <v>al-Mansura</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18002,10 +18033,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>306509</v>
@@ -18020,20 +18051,20 @@
         <v>450833</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J10" s="1" t="str">
         <f aca="false">B10</f>
         <v>El-Mahalla El-Kubra</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18041,10 +18072,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>336517</v>
@@ -18059,20 +18090,20 @@
         <v>429632</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J11" s="1" t="str">
         <f aca="false">B11</f>
         <v>Tanta</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18080,10 +18111,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>272986</v>
@@ -18098,20 +18129,20 @@
         <v>394961</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J12" s="1" t="str">
         <f aca="false">B12</f>
         <v>Asyut</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18119,10 +18150,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>158045</v>
@@ -18137,20 +18168,20 @@
         <v>338429</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J13" s="1" t="str">
         <f aca="false">B13</f>
         <v>Ismailia</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18158,10 +18189,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>213070</v>
@@ -18176,20 +18207,20 @@
         <v>327917</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J14" s="1" t="str">
         <f aca="false">B14</f>
         <v>Fayyum</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18197,10 +18228,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>244354</v>
@@ -18215,20 +18246,20 @@
         <v>308637</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J15" s="1" t="str">
         <f aca="false">B15</f>
         <v>Zagazig</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18236,10 +18267,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>190579</v>
@@ -18254,20 +18285,20 @@
         <v>273450</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J16" s="1" t="str">
         <f aca="false">B16</f>
         <v>Aswan</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18275,10 +18306,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>89498</v>
@@ -18293,20 +18324,20 @@
         <v>266627</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J17" s="1" t="str">
         <f aca="false">B17</f>
         <v>Damietta</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18314,10 +18345,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>188939</v>
@@ -18332,20 +18363,20 @@
         <v>247074</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J18" s="1" t="str">
         <f aca="false">B18</f>
         <v>Damanhur</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18353,10 +18384,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>179060</v>
@@ -18371,20 +18402,20 @@
         <v>246835</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J19" s="1" t="str">
         <f aca="false">B19</f>
         <v>al-Minya</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18392,10 +18423,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>152476</v>
@@ -18410,20 +18441,20 @@
         <v>218472</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J20" s="1" t="str">
         <f aca="false">B20</f>
         <v>Beni Suef</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18431,10 +18462,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>119917</v>
@@ -18449,20 +18480,20 @@
         <v>214851</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J21" s="1" t="str">
         <f aca="false">B21</f>
         <v>Qena</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18470,10 +18501,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>132649</v>
@@ -18488,20 +18519,20 @@
         <v>193931</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J22" s="1" t="str">
         <f aca="false">B22</f>
         <v>Sohag</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18509,10 +18540,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>132649</v>
@@ -18527,20 +18558,20 @@
         <v>189660</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J23" s="1" t="str">
         <f aca="false">B23</f>
         <v>Hurghada</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18548,13 +18579,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>35477</v>
@@ -18566,20 +18597,20 @@
         <v>183859</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J24" s="1" t="str">
         <f aca="false">B24</f>
         <v>6th of October City</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18587,10 +18618,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>132751</v>
@@ -18605,20 +18636,20 @@
         <v>180454</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J25" s="1" t="str">
         <f aca="false">B25</f>
         <v>Shibin El Kom</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18626,10 +18657,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>115701</v>
@@ -18644,20 +18675,20 @@
         <v>161263</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J26" s="1" t="str">
         <f aca="false">B26</f>
         <v>Banha</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18665,10 +18696,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>103301</v>
@@ -18683,20 +18714,20 @@
         <v>151781</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J27" s="1" t="str">
         <f aca="false">B27</f>
         <v>Kafr el-Sheikh</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18704,10 +18735,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>67337</v>
@@ -18722,20 +18753,20 @@
         <v>146758</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J28" s="1" t="str">
         <f aca="false">B28</f>
         <v>Arish</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18743,10 +18774,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>98632</v>
@@ -18761,20 +18792,20 @@
         <v>144330</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J29" s="1" t="str">
         <f aca="false">B29</f>
         <v>Mallawi</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18782,13 +18813,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>47839</v>
@@ -18800,20 +18831,20 @@
         <v>143753</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J30" s="1" t="str">
         <f aca="false">B30</f>
         <v>10th of Ramadan City</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18821,10 +18852,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>96511</v>
@@ -18839,20 +18870,20 @@
         <v>140892</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J31" s="1" t="str">
         <f aca="false">B31</f>
         <v>Bilbais</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18860,10 +18891,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>43157</v>
@@ -18878,20 +18909,20 @@
         <v>137704</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J32" s="1" t="str">
         <f aca="false">B32</f>
         <v>Marsa Matruh</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18899,10 +18930,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>46163</v>
@@ -18917,20 +18948,20 @@
         <v>122031</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J33" s="1" t="str">
         <f aca="false">B33</f>
         <v>Idfu</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18938,10 +18969,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>91927</v>
@@ -18956,20 +18987,20 @@
         <v>118618</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J34" s="1" t="str">
         <f aca="false">B34</f>
         <v>Mit Ghamr</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18977,10 +19008,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>73298</v>
@@ -18995,20 +19026,20 @@
         <v>113128</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J35" s="1" t="str">
         <f aca="false">B35</f>
         <v>Al-Hamidiyya</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19016,10 +19047,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>78316</v>
@@ -19034,20 +19065,20 @@
         <v>109787</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J36" s="1" t="str">
         <f aca="false">B36</f>
         <v>Desouk</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19055,10 +19086,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>84413</v>
@@ -19073,20 +19104,20 @@
         <v>108573</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J37" s="1" t="str">
         <f aca="false">B37</f>
         <v>Qalyub</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19094,10 +19125,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>68394</v>
@@ -19112,20 +19143,20 @@
         <v>106050</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J38" s="1" t="str">
         <f aca="false">B38</f>
         <v>Abu Kabir</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19133,10 +19164,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>196244</v>
@@ -19151,20 +19182,20 @@
         <v>105671</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J39" s="1" t="str">
         <f aca="false">B39</f>
         <v>Kafr el-Dawwar</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19172,10 +19203,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>71564</v>
@@ -19190,20 +19221,20 @@
         <v>104712</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J40" s="1" t="str">
         <f aca="false">B40</f>
         <v>Girga</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19211,10 +19242,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>70602</v>
@@ -19229,20 +19260,20 @@
         <v>104454</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J41" s="1" t="str">
         <f aca="false">B41</f>
         <v>Akhmim</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19250,10 +19281,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>74554</v>
@@ -19268,20 +19299,20 @@
         <v>103004</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="J42" s="1" t="str">
         <f aca="false">B42</f>
         <v>Matareya</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flutter\MadrastQuran\QuranSchoolnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AF6FB-0521-4A2C-A699-68DB1322A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388471AE-6735-47D3-913A-ED75D84B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5197,9 +5197,6 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>تحت الطلب</t>
-  </si>
-  <si>
     <t>No Evaluation</t>
   </si>
   <si>
@@ -5216,6 +5213,9 @@
   </si>
   <si>
     <t>evaluation</t>
+  </si>
+  <si>
+    <t>معلقه</t>
   </si>
 </sst>
 </file>
@@ -5681,7 +5681,7 @@
   <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9941,7 +9941,7 @@
         <v>1709</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="6"/>
@@ -9949,18 +9949,18 @@
       </c>
       <c r="F208" t="str">
         <f t="shared" si="7"/>
-        <v>'Pending':'تحت الطلب',</v>
+        <v>'Pending':'معلقه',</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C209" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="6"/>
@@ -9973,13 +9973,13 @@
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C210" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="6"/>
@@ -17624,7 +17624,7 @@
         <v>1164</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" ref="B129:B160" si="8">TRIM(A129)</f>
+        <f t="shared" ref="B129:B153" si="8">TRIM(A129)</f>
         <v>Al_Khan</v>
       </c>
       <c r="C129" t="str">

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flutter\MadrastQuran\QuranSchoolnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388471AE-6735-47D3-913A-ED75D84B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2E9B8-DCBB-4544-B20F-C012971D870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1729">
   <si>
     <t>Page</t>
   </si>
@@ -5217,12 +5217,48 @@
   <si>
     <t>معلقه</t>
   </si>
+  <si>
+    <t>Are you sure you want to remove your account?</t>
+  </si>
+  <si>
+    <t>This action cannot be undone. All your data and reservations will be permanently deleted.</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد أنك تريد إزالة حسابك؟</t>
+  </si>
+  <si>
+    <t>لا يمكن التراجع عن هذا الإجراء. سيتم حذف جميع بياناتك وحجوزاتك نهائيًا.</t>
+  </si>
+  <si>
+    <t>warning_remove</t>
+  </si>
+  <si>
+    <t>Remove Account</t>
+  </si>
+  <si>
+    <t>Remove_Account</t>
+  </si>
+  <si>
+    <t>remove_account_msg</t>
+  </si>
+  <si>
+    <t>إزالة الحساب</t>
+  </si>
+  <si>
+    <t>Confirm Phone Number</t>
+  </si>
+  <si>
+    <t>تأكيد رقم الهاتف</t>
+  </si>
+  <si>
+    <t>Confirm_Phone_Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5254,6 +5290,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5275,7 +5317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5294,6 +5336,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5678,10 +5723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9678,11 +9723,11 @@
         <v>541</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" ref="E194:E210" si="6">""""&amp;TRIM(B194)&amp;""":"&amp;""""&amp;TRIM(C194)&amp;""","</f>
+        <f t="shared" ref="E194:E212" si="6">""""&amp;TRIM(B194)&amp;""":"&amp;""""&amp;TRIM(C194)&amp;""","</f>
         <v>"remainingSessions":"Remain Sessions",</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" ref="F194:F210" si="7">"'"&amp;TRIM(B194)&amp;"':"&amp;"'"&amp;TRIM(D194)&amp;"',"</f>
+        <f t="shared" ref="F194:F212" si="7">"'"&amp;TRIM(B194)&amp;"':"&amp;"'"&amp;TRIM(D194)&amp;"',"</f>
         <v>'remainingSessions':'الجلسات المتبقية',</v>
       </c>
     </row>
@@ -9990,11 +10035,87 @@
         <v>'evaluation':'التقييم :',</v>
       </c>
     </row>
+    <row r="211" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="6"/>
+        <v>"remove_account_msg":"Are you sure you want to remove your account?",</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="7"/>
+        <v>'remove_account_msg':'هل أنت متأكد أنك تريد إزالة حسابك؟',</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="6"/>
+        <v>"warning_remove":"This action cannot be undone. All your data and reservations will be permanently deleted.",</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="7"/>
+        <v>'warning_remove':'لا يمكن التراجع عن هذا الإجراء. سيتم حذف جميع بياناتك وحجوزاتك نهائيًا.',</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" ref="E213" si="8">""""&amp;TRIM(B213)&amp;""":"&amp;""""&amp;TRIM(C213)&amp;""","</f>
+        <v>"Remove_Account":"Remove Account",</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" ref="F213" si="9">"'"&amp;TRIM(B213)&amp;"':"&amp;"'"&amp;TRIM(D213)&amp;"',"</f>
+        <v>'Remove_Account':'إزالة الحساب',</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" ref="E214" si="10">""""&amp;TRIM(B214)&amp;""":"&amp;""""&amp;TRIM(C214)&amp;""","</f>
+        <v>"Confirm_Phone_Number":"Confirm Phone Number",</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" ref="F214" si="11">"'"&amp;TRIM(B214)&amp;"':"&amp;"'"&amp;TRIM(D214)&amp;"',"</f>
+        <v>'Confirm_Phone_Number':'تأكيد رقم الهاتف',</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B1048576 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203">
+  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B212 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203 B215:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B1048576 B1:B170 B185 B187:B192 B197 B200:B203">
+  <conditionalFormatting sqref="B209:B212 B1:B170 B185 B187:B192 B197 B200:B203 B215:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flutter\MadrastQuran\QuranSchoolnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2E9B8-DCBB-4544-B20F-C012971D870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E3F46-4D4F-4C20-8706-BB48554692A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1732">
   <si>
     <t>Page</t>
   </si>
@@ -5252,6 +5252,15 @@
   </si>
   <si>
     <t>Confirm_Phone_Number</t>
+  </si>
+  <si>
+    <t>user_Name_En</t>
+  </si>
+  <si>
+    <t>Username (English only)</t>
+  </si>
+  <si>
+    <t>اسم المستخدم ( انجليزى فقط )</t>
   </si>
 </sst>
 </file>
@@ -5723,10 +5732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10103,19 +10112,38 @@
         <v>1727</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" ref="E214" si="10">""""&amp;TRIM(B214)&amp;""":"&amp;""""&amp;TRIM(C214)&amp;""","</f>
+        <f t="shared" ref="E214:E215" si="10">""""&amp;TRIM(B214)&amp;""":"&amp;""""&amp;TRIM(C214)&amp;""","</f>
         <v>"Confirm_Phone_Number":"Confirm Phone Number",</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" ref="F214" si="11">"'"&amp;TRIM(B214)&amp;"':"&amp;"'"&amp;TRIM(D214)&amp;"',"</f>
+        <f t="shared" ref="F214:F215" si="11">"'"&amp;TRIM(B214)&amp;"':"&amp;"'"&amp;TRIM(D214)&amp;"',"</f>
         <v>'Confirm_Phone_Number':'تأكيد رقم الهاتف',</v>
       </c>
     </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="10"/>
+        <v>"user_Name_En":"Username (English only)",</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="11"/>
+        <v>'user_Name_En':'اسم المستخدم ( انجليزى فقط )',</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B212 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203 B215:B1048576">
+  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B212 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203 B216:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B212 B1:B170 B185 B187:B192 B197 B200:B203 B215:B1048576">
+  <conditionalFormatting sqref="B209:B212 B1:B170 B185 B187:B192 B197 B200:B203 B216:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flutter\MadrastQuran\QuranSchoolnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E3F46-4D4F-4C20-8706-BB48554692A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4441FC-58A2-4811-9FC8-DF3DE029BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1735">
   <si>
     <t>Page</t>
   </si>
@@ -5261,6 +5261,15 @@
   </si>
   <si>
     <t>اسم المستخدم ( انجليزى فقط )</t>
+  </si>
+  <si>
+    <t>Waiting for a remote user to join</t>
+  </si>
+  <si>
+    <t>waiting_remote</t>
+  </si>
+  <si>
+    <t>في انتظار انضمام المستخدم البعيد</t>
   </si>
 </sst>
 </file>
@@ -5732,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="B205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10112,11 +10121,11 @@
         <v>1727</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" ref="E214:E215" si="10">""""&amp;TRIM(B214)&amp;""":"&amp;""""&amp;TRIM(C214)&amp;""","</f>
+        <f t="shared" ref="E214:E216" si="10">""""&amp;TRIM(B214)&amp;""":"&amp;""""&amp;TRIM(C214)&amp;""","</f>
         <v>"Confirm_Phone_Number":"Confirm Phone Number",</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" ref="F214:F215" si="11">"'"&amp;TRIM(B214)&amp;"':"&amp;"'"&amp;TRIM(D214)&amp;"',"</f>
+        <f t="shared" ref="F214:F216" si="11">"'"&amp;TRIM(B214)&amp;"':"&amp;"'"&amp;TRIM(D214)&amp;"',"</f>
         <v>'Confirm_Phone_Number':'تأكيد رقم الهاتف',</v>
       </c>
     </row>
@@ -10137,6 +10146,25 @@
       <c r="F215" t="str">
         <f t="shared" si="11"/>
         <v>'user_Name_En':'اسم المستخدم ( انجليزى فقط )',</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="10"/>
+        <v>"waiting_remote":"Waiting for a remote user to join",</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="11"/>
+        <v>'waiting_remote':'في انتظار انضمام المستخدم البعيد',</v>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Flutter\MadrastQuran\QuranSchoolnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4441FC-58A2-4811-9FC8-DF3DE029BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78195FE2-6D8B-482E-8CD0-0107FB049769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1738">
   <si>
     <t>Page</t>
   </si>
@@ -5270,6 +5270,15 @@
   </si>
   <si>
     <t>في انتظار انضمام المستخدم البعيد</t>
+  </si>
+  <si>
+    <t>change_after_30_min</t>
+  </si>
+  <si>
+    <t>The updated date must be at least 30 minutes later than the current time.</t>
+  </si>
+  <si>
+    <t>يجب أن يكون التاريخ المحدد بعد الآن بـ 30 دقيقة على الأقل</t>
   </si>
 </sst>
 </file>
@@ -5741,10 +5750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10167,11 +10176,30 @@
         <v>'waiting_remote':'في انتظار انضمام المستخدم البعيد',</v>
       </c>
     </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" ref="E217" si="12">""""&amp;TRIM(B217)&amp;""":"&amp;""""&amp;TRIM(C217)&amp;""","</f>
+        <v>"change_after_30_min":"The updated date must be at least 30 minutes later than the current time.",</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" ref="F217" si="13">"'"&amp;TRIM(B217)&amp;"':"&amp;"'"&amp;TRIM(D217)&amp;"',"</f>
+        <v>'change_after_30_min':'يجب أن يكون التاريخ المحدد بعد الآن بـ 30 دقيقة على الأقل',</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B212 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203 B216:B1048576">
+  <conditionalFormatting sqref="B129 B1:B22 B56:B61 B69 B63:B67 B71:B77 B79:B81 B88:B92 B94:B96 B209:B212 B99:B102 B104:B105 B107:B108 B110 B112 B114:B117 B119 B121 B124 B127 B136 B138 B140 B149 B154 B156:B160 B162:B163 B166 B185 B187:B192 B197 B200:B203 B216 B218:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B212 B1:B170 B185 B187:B192 B197 B200:B203 B216:B1048576">
+  <conditionalFormatting sqref="B209:B212 B1:B170 B185 B187:B192 B197 B200:B203 B216 B218:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
